--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_OPENING_BALANCE.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_OPENING_BALANCE.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="TB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TB!$A$3:$E$268</definedName>
+  </definedNames>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -839,7 +842,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -913,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1202,9 +1205,9 @@
   <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1237,12 +1240,8 @@
       <c r="A4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="3">
-        <v>8121</v>
-      </c>
-      <c r="C4" s="3">
-        <v>496639755</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1303,12 +1302,8 @@
       <c r="A10" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="3">
-        <v>3827</v>
-      </c>
-      <c r="C10" s="3">
-        <v>203695902</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1369,12 +1364,8 @@
       <c r="A16" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="3">
-        <v>1846</v>
-      </c>
-      <c r="C16" s="3">
-        <v>101000198</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1435,12 +1426,8 @@
       <c r="A22" t="s">
         <v>246</v>
       </c>
-      <c r="B22" s="3">
-        <v>5170</v>
-      </c>
-      <c r="C22" s="3">
-        <v>122265330</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1501,12 +1488,8 @@
       <c r="A28" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="3">
-        <v>896</v>
-      </c>
-      <c r="C28" s="3">
-        <v>86867200</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1567,12 +1550,8 @@
       <c r="A34" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="3">
-        <v>6632</v>
-      </c>
-      <c r="C34" s="3">
-        <v>400353944</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1633,12 +1612,8 @@
       <c r="A40" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="3">
-        <v>9389</v>
-      </c>
-      <c r="C40" s="3">
-        <v>156768133</v>
-      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -1699,12 +1674,8 @@
       <c r="A46" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="3">
-        <v>1143</v>
-      </c>
-      <c r="C46" s="3">
-        <v>104453055</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -1743,12 +1714,8 @@
       <c r="A50" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="3">
-        <v>5056</v>
-      </c>
-      <c r="C50" s="3">
-        <v>401931776</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -1809,12 +1776,8 @@
       <c r="A56" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="3">
-        <v>4603</v>
-      </c>
-      <c r="C56" s="3">
-        <v>393303335</v>
-      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -1875,12 +1838,8 @@
       <c r="A62" t="s">
         <v>206</v>
       </c>
-      <c r="B62" s="3">
-        <v>3671</v>
-      </c>
-      <c r="C62" s="3">
-        <v>188333313</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1941,12 +1900,8 @@
       <c r="A68" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="3">
-        <v>734</v>
-      </c>
-      <c r="C68" s="3">
-        <v>40345778</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -1974,12 +1929,8 @@
       <c r="A71" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="3">
-        <v>5822</v>
-      </c>
-      <c r="C71" s="3">
-        <v>334351638</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2040,12 +1991,8 @@
       <c r="A77" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="3">
-        <v>6296</v>
-      </c>
-      <c r="C77" s="3">
-        <v>577935024</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2106,12 +2053,8 @@
       <c r="A83" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="3">
-        <v>4382</v>
-      </c>
-      <c r="C83" s="3">
-        <v>124685428</v>
-      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -2172,12 +2115,8 @@
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="3">
-        <v>3413</v>
-      </c>
-      <c r="C89" s="3">
-        <v>339337525</v>
-      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -2216,12 +2155,8 @@
       <c r="A93" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="3">
-        <v>4650</v>
-      </c>
-      <c r="C93" s="3">
-        <v>242297550</v>
-      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -2282,12 +2217,8 @@
       <c r="A99" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="3">
-        <v>1572</v>
-      </c>
-      <c r="C99" s="3">
-        <v>67025364</v>
-      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -2348,12 +2279,8 @@
       <c r="A105" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="3">
-        <v>3661</v>
-      </c>
-      <c r="C105" s="3">
-        <v>295523242</v>
-      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -2414,12 +2341,8 @@
       <c r="A111" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="3">
-        <v>3606</v>
-      </c>
-      <c r="C111" s="3">
-        <v>120754122</v>
-      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -2458,12 +2381,8 @@
       <c r="A115" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="3">
-        <v>9131</v>
-      </c>
-      <c r="C115" s="3">
-        <v>284613270</v>
-      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -2524,12 +2443,8 @@
       <c r="A121" t="s">
         <v>147</v>
       </c>
-      <c r="B121" s="3">
-        <v>5685</v>
-      </c>
-      <c r="C121" s="3">
-        <v>488449515</v>
-      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -2590,12 +2505,8 @@
       <c r="A127" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="3">
-        <v>6145</v>
-      </c>
-      <c r="C127" s="3">
-        <v>291107085</v>
-      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
@@ -2656,12 +2567,8 @@
       <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="3">
-        <v>483</v>
-      </c>
-      <c r="C133" s="3">
-        <v>28315875</v>
-      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -2722,12 +2629,8 @@
       <c r="A139" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="3">
-        <v>369</v>
-      </c>
-      <c r="C139" s="3">
-        <v>28010421</v>
-      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -2788,12 +2691,8 @@
       <c r="A145" t="s">
         <v>123</v>
       </c>
-      <c r="B145" s="3">
-        <v>737</v>
-      </c>
-      <c r="C145" s="3">
-        <v>58329865</v>
-      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -2854,12 +2753,8 @@
       <c r="A151" t="s">
         <v>117</v>
       </c>
-      <c r="B151" s="3">
-        <v>4760</v>
-      </c>
-      <c r="C151" s="3">
-        <v>299675320</v>
-      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -2920,12 +2815,8 @@
       <c r="A157" t="s">
         <v>111</v>
       </c>
-      <c r="B157" s="3">
-        <v>5441</v>
-      </c>
-      <c r="C157" s="3">
-        <v>159497474</v>
-      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
@@ -2986,12 +2877,8 @@
       <c r="A163" t="s">
         <v>105</v>
       </c>
-      <c r="B163" s="3">
-        <v>6178</v>
-      </c>
-      <c r="C163" s="3">
-        <v>155629998</v>
-      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -3052,12 +2939,8 @@
       <c r="A169" t="s">
         <v>99</v>
       </c>
-      <c r="B169" s="3">
-        <v>9145</v>
-      </c>
-      <c r="C169" s="3">
-        <v>450190060</v>
-      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
@@ -3118,12 +3001,8 @@
       <c r="A175" t="s">
         <v>93</v>
       </c>
-      <c r="B175" s="3">
-        <v>539</v>
-      </c>
-      <c r="C175" s="3">
-        <v>11656953</v>
-      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -3184,12 +3063,8 @@
       <c r="A181" t="s">
         <v>87</v>
       </c>
-      <c r="B181" s="3">
-        <v>9860</v>
-      </c>
-      <c r="C181" s="3">
-        <v>645415880</v>
-      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -3349,12 +3224,8 @@
       <c r="A196" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="3">
-        <v>1045</v>
-      </c>
-      <c r="C196" s="3">
-        <v>77332090</v>
-      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
@@ -3415,12 +3286,8 @@
       <c r="A202" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="3">
-        <v>9472</v>
-      </c>
-      <c r="C202" s="3">
-        <v>355768320</v>
-      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -3547,12 +3414,8 @@
       <c r="A214" t="s">
         <v>54</v>
       </c>
-      <c r="B214" s="3">
-        <v>8890</v>
-      </c>
-      <c r="C214" s="3">
-        <v>418318950</v>
-      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -3613,12 +3476,8 @@
       <c r="A220" t="s">
         <v>48</v>
       </c>
-      <c r="B220" s="3">
-        <v>747</v>
-      </c>
-      <c r="C220" s="3">
-        <v>66589821</v>
-      </c>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -3657,12 +3516,8 @@
       <c r="A224" t="s">
         <v>44</v>
       </c>
-      <c r="B224" s="3">
-        <v>6773</v>
-      </c>
-      <c r="C224" s="3">
-        <v>187801744</v>
-      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
@@ -3701,12 +3556,8 @@
       <c r="A228" t="s">
         <v>40</v>
       </c>
-      <c r="B228" s="3">
-        <v>9887</v>
-      </c>
-      <c r="C228" s="3">
-        <v>765184591</v>
-      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
@@ -3745,12 +3596,8 @@
       <c r="A232" t="s">
         <v>36</v>
       </c>
-      <c r="B232" s="3">
-        <v>7055</v>
-      </c>
-      <c r="C232" s="3">
-        <v>652834425</v>
-      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
@@ -3778,12 +3625,8 @@
       <c r="A235" t="s">
         <v>33</v>
       </c>
-      <c r="B235" s="3">
-        <v>9471</v>
-      </c>
-      <c r="C235" s="3">
-        <v>764925315</v>
-      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
@@ -3844,12 +3687,8 @@
       <c r="A241" t="s">
         <v>27</v>
       </c>
-      <c r="B241" s="3">
-        <v>4046</v>
-      </c>
-      <c r="C241" s="3">
-        <v>89101012</v>
-      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
@@ -3877,12 +3716,8 @@
       <c r="A244" t="s">
         <v>24</v>
       </c>
-      <c r="B244" s="3">
-        <v>219</v>
-      </c>
-      <c r="C244" s="3">
-        <v>21878319</v>
-      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
@@ -3910,12 +3745,8 @@
       <c r="A247" t="s">
         <v>21</v>
       </c>
-      <c r="B247" s="3">
-        <v>456</v>
-      </c>
-      <c r="C247" s="3">
-        <v>24838776</v>
-      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
@@ -3954,12 +3785,8 @@
       <c r="A251" t="s">
         <v>17</v>
       </c>
-      <c r="B251" s="3">
-        <v>8437</v>
-      </c>
-      <c r="C251" s="3">
-        <v>465376483</v>
-      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
@@ -3987,12 +3814,8 @@
       <c r="A254" t="s">
         <v>14</v>
       </c>
-      <c r="B254" s="3">
-        <v>3576</v>
-      </c>
-      <c r="C254" s="3">
-        <v>142278312</v>
-      </c>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
@@ -4031,12 +3854,8 @@
       <c r="A258" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="3">
-        <v>7395</v>
-      </c>
-      <c r="C258" s="3">
-        <v>185577525</v>
-      </c>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
@@ -4075,12 +3894,8 @@
       <c r="A262" t="s">
         <v>6</v>
       </c>
-      <c r="B262" s="3">
-        <v>8242</v>
-      </c>
-      <c r="C262" s="3">
-        <v>294717436</v>
-      </c>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
@@ -4108,12 +3923,8 @@
       <c r="A265" t="s">
         <v>3</v>
       </c>
-      <c r="B265" s="3">
-        <v>2594</v>
-      </c>
-      <c r="C265" s="3">
-        <v>67565918</v>
-      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
